--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>测试详情</t>
   </si>
@@ -43,76 +43,28 @@
     <t xml:space="preserve">是否通过 </t>
   </si>
   <si>
-    <t>192.168.0.101:9999/api/add</t>
+    <t>w-beta-1000.chemanman.com:4901/api/Login/Login/login</t>
   </si>
   <si>
     <t>post</t>
   </si>
   <si>
-    <t>{'token': 'a577b110-6b94-11e8-b4b5-bc5ff48e988d', 'name': '[]'}</t>
-  </si>
-  <si>
-    <t>新增_token参数错误,id删除参数,name参数错误,</t>
-  </si>
-  <si>
-    <t>{"id": 7}</t>
+    <t>req': '{"group_id":"320","user_name":"CY","password":"202cb962ac59075b964b07152d234b70"}'</t>
+  </si>
+  <si>
+    <t>cmm登录</t>
+  </si>
+  <si>
+    <t>{"errno":0,"errmsg":"成功","req":{"group_id":"320","user_name":"CY","password":"202cb962ac59075b964b07152d234b70"},"res":{"user_info":{"id":"28040","user_name":"CY","name":"朝阳","department_id":"0","company_id":"14101","group_id":"320","state":"2","telephone":"213","token_id":"{\"pc\":\"fe45a87232174fc8925b953499566d5b\",\"mobile\":\"935c116a1061c2828189ad489de5382b\"}","is_admin":"0","role_ids":"[\"82994\"]","sso_state":"0","login_info":"{\"pc\":{\"login_time\":\"2018-08-24 00:22:39\",\"login_city\":\"山东省济南市\",\"login_ip\":\"113.128.105.57\"},\"mobile\":{\"login_time\":\"2018-08-06 17:56:13\",\"login_city\":\"湖北省武汉市\",\"login_ip\":\"113.57.246.91\"}}","type":"1","create_time":"2018-05-24 17:24:34","position_ids":0,"user_account":{},"jiguang_alias":"2cd42547e17e6975f5a4fb59ae49cfb1"},"company_info":{"id":"14101","group_id":"320","company_name":"朝阳区网点","short_name":"朝阳","company_code":"CYQWD","telephone":"123","phone":"","type":"3","sup_id":"14097","address":"{\"show_val\":\"北京市朝阳区北京市朝阳区人民法院\",\"province\":\"北京市\",\"city\":\"\",\"district\":\"朝阳区\",\"street\":\"\",\"adcode\":\"110105\",\"poi\":\"116.475145,39.933191\"}","address_remark":"","city":"","complain_phone":"","service_phone":"","property":"1","has_cashier":"0","to_transit_shed":"0"},"ext_info":{"images":{"logo":{"big":"cmm_logo_big.png","small":"cmm_logo_small.png"},"icon":"cmm_favicon.ico"},"title":"车满满物流管理系统","account":{"balance_alarm_state":0},"emp_acc":"0","wallet":1,"co_delivery_ticket_order_see":1,"co_delivery_ticket_batch_see":1,"co_delivery_ticket_op":1,"co_delivery_paid_op":1},"url":"\/Index\/Home","jiguang_alias":"2cd42547e17e6975f5a4fb59ae49cfb1"}}</t>
   </si>
   <si>
     <t>200</t>
   </si>
   <si>
-    <t>{"code":100, "id":123}</t>
-  </si>
-  <si>
-    <t>{'token': 'a577b110-6b94-11e8-b4b5-bc5ff48e988d', 'id': 'a61049ca-6b94-11e8-b359-bc5ff48e988d'}</t>
-  </si>
-  <si>
-    <t>新增_token参数错误,id参数错误,name删除参数,</t>
-  </si>
-  <si>
-    <t>{}</t>
-  </si>
-  <si>
-    <t>新增_token删除参数,id删除参数,name删除参数,</t>
-  </si>
-  <si>
-    <t>{'id': 'a61049ca-6b94-11e8-b359-bc5ff48e988d', 'name': '[]'}</t>
-  </si>
-  <si>
-    <t>新增_token删除参数,id参数错误,name参数错误,</t>
-  </si>
-  <si>
-    <t>{'token': 'aasss', 'id': '101', 'name': ['test1', 'test2', 'test3']}</t>
-  </si>
-  <si>
-    <t>新增_全部参数正确</t>
-  </si>
-  <si>
-    <t>192.168.0.101:9999/api/list</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>{'id': 'a88571b0-6b94-11e8-bdc1-bc5ff48e988d'}</t>
-  </si>
-  <si>
-    <t>得到列表_id参数错误,</t>
-  </si>
-  <si>
-    <t>{"code":"1001"}</t>
-  </si>
-  <si>
-    <t>{"id": "123", "data":[{"code":"1001","error":"2008"},{"code":"1002","error":"2009"}],"name":1111}</t>
-  </si>
-  <si>
-    <t>得到列表_id删除参数,</t>
-  </si>
-  <si>
-    <t>{'id': '123'}</t>
-  </si>
-  <si>
-    <t>得到列表_全部参数正确</t>
+    <t>{"errno":0,"errmsg":"成功","req":{"group_id":"320","user_name":"CY","password":"202cb962ac59075b964b07152d234b70"},"res":{"user_info":{"id":"28040","user_name":"CY","name":"朝阳","department_id":"0","company_id":"14101","group_id":"320","state":"2","telephone":"213","token_id":"{\"pc\":\"fdf6736b8f7d8b1cda614cc90f51113b\",\"mobile\":\"935c116a1061c2828189ad489de5382b\"}","is_admin":"0","role_ids":"[\"82994\"]","sso_state":"0","login_info":"{\"pc\":{\"login_time\":\"2018-08-24 00:46:19\",\"login_city\":\"山东省济南市\",\"login_ip\":\"113.128.105.57\"},\"mobile\":{\"login_time\":\"2018-08-06 17:56:13\",\"login_city\":\"湖北省武汉市\",\"login_ip\":\"113.57.246.91\"}}","type":"1","create_time":"2018-05-24 17:24:34","position_ids":0,"user_account":{},"jiguang_alias":"2cd42547e17e6975f5a4fb59ae49cfb1"},"company_info":{"id":"14101","group_id":"320","company_name":"朝阳区网点","short_name":"朝阳","company_code":"CYQWD","telephone":"123","phone":"","type":"3","sup_id":"14097","address":"{\"show_val\":\"北京市朝阳区北京市朝阳区人民法院\",\"province\":\"北京市\",\"city\":\"\",\"district\":\"朝阳区\",\"street\":\"\",\"adcode\":\"110105\",\"poi\":\"116.475145,39.933191\"}","address_remark":"","city":"","complain_phone":"","service_phone":"","property":"1","has_cashier":"0","to_transit_shed":"0"},"ext_info":{"images":{"logo":{"big":"cmm_logo_big.png","small":"cmm_logo_small.png"},"icon":"cmm_favicon.ico"},"title":"车满满物流管理系统","account":{"balance_alarm_state":0},"emp_acc":"0","wallet":1,"co_delivery_ticket_order_see":1,"co_delivery_ticket_batch_see":1,"co_delivery_ticket_op":1,"co_delivery_paid_op":1},"url":"\/Index\/Home","jiguang_alias":"2cd42547e17e6975f5a4fb59ae49cfb1"}}</t>
+  </si>
+  <si>
+    <t>通过</t>
   </si>
 </sst>
 </file>
@@ -479,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -555,176 +507,16 @@
       <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" ht="30" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" ht="30" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" ht="30" customHeight="1">
-      <c r="A9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="2"/>
-    </row>
+    <row r="4" spans="1:8" ht="30" customHeight="1"/>
+    <row r="5" spans="1:8" ht="30" customHeight="1"/>
+    <row r="6" spans="1:8" ht="30" customHeight="1"/>
+    <row r="7" spans="1:8" ht="30" customHeight="1"/>
+    <row r="8" spans="1:8" ht="30" customHeight="1"/>
+    <row r="9" spans="1:8" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
